--- a/Test Protocol.xlsx
+++ b/Test Protocol.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>run simulation, wait till set temp mode start then press increment button till the temp is 35 then press again</t>
+  </si>
+  <si>
+    <t>set program temp above the current temp</t>
+  </si>
+  <si>
+    <t>run simulation, wait till set temp mode start then set the temp high, then read the temp</t>
+  </si>
+  <si>
+    <t>set program temp below the current temp</t>
+  </si>
+  <si>
+    <t>run simulation, wait till set temp mode start then set the temp low, then hold the temprature sensor in your hand, then read temp</t>
+  </si>
+  <si>
+    <t>print the bell shape and start the buzzer</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="37.13"/>
-    <col customWidth="1" min="3" max="3" width="82.38"/>
+    <col customWidth="1" min="3" max="3" width="95.5"/>
     <col customWidth="1" min="4" max="4" width="38.25"/>
     <col customWidth="1" min="5" max="5" width="37.25"/>
   </cols>
@@ -554,9 +569,49 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F10">
       <formula1>"PASS,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Protocol.xlsx
+++ b/Test Protocol.xlsx
@@ -85,13 +85,13 @@
     <t>set program temp above the current temp</t>
   </si>
   <si>
-    <t>run simulation, wait till set temp mode start then set the temp high, then read the temp</t>
+    <t>run simulation, wait till set temp mode start then set the temp high,then adjust the sensor value to be low then read the temp</t>
   </si>
   <si>
     <t>set program temp below the current temp</t>
   </si>
   <si>
-    <t>run simulation, wait till set temp mode start then set the temp low, then hold the temprature sensor in your hand, then read temp</t>
+    <t>run simulation, wait till set temp mode start then set the temp low, then ajust the sensor value to be high, then read temp</t>
   </si>
   <si>
     <t>print the bell shape and start the buzzer</t>
